--- a/data_year/zb/社会服务/社会捐赠.xlsx
+++ b/data_year/zb/社会服务/社会捐赠.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,392 +468,142 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.92523</v>
+        <v>417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.77085</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.42117</v>
+        <v>179.8</v>
       </c>
       <c r="E2" t="n">
-        <v>6.95896</v>
+        <v>4.9</v>
       </c>
       <c r="F2" t="n">
-        <v>9.346399999999999</v>
+        <v>596.8</v>
       </c>
       <c r="G2" t="n">
-        <v>16.30536</v>
+        <v>601.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.14722</v>
+        <v>393.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.26354</v>
+        <v>0.3</v>
       </c>
       <c r="D3" t="n">
-        <v>7.57696</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.264379999999999</v>
+        <v>4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>11.72418</v>
+        <v>490.1</v>
       </c>
       <c r="G3" t="n">
-        <v>19.98856</v>
+        <v>494.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.877</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.29611</v>
-      </c>
+        <v>470.8</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>11.09058</v>
+        <v>101.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1.83039</v>
+        <v>6.3</v>
       </c>
       <c r="F4" t="n">
-        <v>18.96758</v>
+        <v>572.5</v>
       </c>
       <c r="G4" t="n">
-        <v>20.79797</v>
+        <v>578.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.85443</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.96488</v>
-      </c>
+        <v>458.75065</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>29.16904</v>
+        <v>107.61792</v>
       </c>
       <c r="E5" t="n">
-        <v>2.38202</v>
+        <v>8.70898</v>
       </c>
       <c r="F5" t="n">
-        <v>41.02347</v>
+        <v>566.36857</v>
       </c>
       <c r="G5" t="n">
-        <v>43.40549</v>
+        <v>575.07755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.897</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.89572</v>
-      </c>
+        <v>287.07759</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>17.06713</v>
+        <v>81.7062</v>
       </c>
       <c r="E6" t="n">
-        <v>1.15644</v>
+        <v>11.90648</v>
       </c>
       <c r="F6" t="n">
-        <v>33.96413</v>
+        <v>368.78379</v>
       </c>
       <c r="G6" t="n">
-        <v>35.12057</v>
+        <v>380.69027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.9962</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0356</v>
-      </c>
+        <v>610.26237</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>31.33929</v>
+        <v>44.20295</v>
       </c>
       <c r="E7" t="n">
-        <v>1.55803</v>
+        <v>5.24082</v>
       </c>
       <c r="F7" t="n">
-        <v>60.33549</v>
+        <v>654.46532</v>
       </c>
       <c r="G7" t="n">
-        <v>61.89352</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>40.08147</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.71236</v>
-      </c>
-      <c r="D8" t="n">
-        <v>42.99447</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.40519</v>
-      </c>
-      <c r="F8" t="n">
-        <v>83.07594</v>
-      </c>
-      <c r="G8" t="n">
-        <v>89.48112999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.87568</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50.87592</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15.56486</v>
-      </c>
-      <c r="F9" t="n">
-        <v>132.77592</v>
-      </c>
-      <c r="G9" t="n">
-        <v>148.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>479.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>744.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>417.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>483.7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>485.9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>417</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>596.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>601.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>393.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>494.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>470.8</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>572.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>578.8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>458.75065</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>107.61792</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.70898</v>
-      </c>
-      <c r="F15" t="n">
-        <v>566.36857</v>
-      </c>
-      <c r="G15" t="n">
-        <v>575.07755</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>287.07759</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>81.7062</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11.90648</v>
-      </c>
-      <c r="F16" t="n">
-        <v>368.78379</v>
-      </c>
-      <c r="G16" t="n">
-        <v>380.69027</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>610.26237</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>44.20295</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.24082</v>
-      </c>
-      <c r="F17" t="n">
-        <v>654.46532</v>
-      </c>
-      <c r="G17" t="n">
         <v>659.70614</v>
       </c>
     </row>
